--- a/document/Tabla_Ra.xlsx
+++ b/document/Tabla_Ra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller 2\Taller_2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887CD5EE-73C1-49AC-BA2C-90B93E43BE06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A8FDE-3507-4CC9-ADE0-A776259C8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +516,9 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>122.1672705785344</v>
+      </c>
       <c r="F4">
         <v>4231</v>
       </c>

--- a/document/Tabla_Ra.xlsx
+++ b/document/Tabla_Ra.xlsx
@@ -1,86 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller 2\Taller_2\document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A8FDE-3507-4CC9-ADE0-A776259C8AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Rango de Precios</t>
-  </si>
-  <si>
-    <t>Estrato</t>
-  </si>
-  <si>
-    <t>Habitaciones</t>
-  </si>
-  <si>
-    <t>Baños</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Part. %</t>
-  </si>
-  <si>
-    <t>19.50-19.65</t>
-  </si>
-  <si>
-    <t>19.65-19.80</t>
-  </si>
-  <si>
-    <t>19.80-19.95</t>
-  </si>
-  <si>
-    <t>19.95-20.10</t>
-  </si>
-  <si>
-    <t>20.10-20.25</t>
-  </si>
-  <si>
-    <t>20.25-20.4</t>
-  </si>
-  <si>
-    <t>20.4-20.55</t>
-  </si>
-  <si>
-    <t>20.55-20.80</t>
-  </si>
-  <si>
-    <t>20.80-20.95</t>
-  </si>
-  <si>
-    <t>20.95-21.10</t>
-  </si>
-  <si>
-    <t>21.10-21.25</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -214,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -425,41 +350,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rango de Precios</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Estrato</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Habitaciones</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Baños</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Observaciones</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Part. %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>19.50-19.65</t>
+        </is>
       </c>
       <c r="B2">
         <v>4</v>
@@ -480,9 +419,11 @@
         <v>10.53643256327199</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19.65-19.80</t>
+        </is>
       </c>
       <c r="B3">
         <v>4</v>
@@ -503,9 +444,11 @@
         <v>13.48022639091589</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19.80-19.95</t>
+        </is>
       </c>
       <c r="B4">
         <v>4</v>
@@ -523,12 +466,14 @@
         <v>4231</v>
       </c>
       <c r="G4">
-        <v>15.060691275406681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+        <v>15.06069127540668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>19.95-20.10</t>
+        </is>
       </c>
       <c r="B5">
         <v>4</v>
@@ -540,18 +485,20 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>128.05243523218431</v>
+        <v>128.0524352321843</v>
       </c>
       <c r="F5">
         <v>3430</v>
       </c>
       <c r="G5">
-        <v>12.209447193250989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
+        <v>12.20944719325099</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20.10-20.25</t>
+        </is>
       </c>
       <c r="B6">
         <v>4</v>
@@ -563,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>134.92467472221901</v>
+        <v>134.924674722219</v>
       </c>
       <c r="F6">
         <v>3262</v>
@@ -572,9 +519,11 @@
         <v>11.61143345317339</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20.25-20.4</t>
+        </is>
       </c>
       <c r="B7">
         <v>4</v>
@@ -586,18 +535,20 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>138.77390642748591</v>
+        <v>138.7739064274859</v>
       </c>
       <c r="F7">
         <v>2797</v>
       </c>
       <c r="G7">
-        <v>9.9562168511728899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
+        <v>9.95621685117289</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20.4-20.55</t>
+        </is>
       </c>
       <c r="B8">
         <v>4</v>
@@ -609,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>148.04746691684409</v>
+        <v>148.0474669168441</v>
       </c>
       <c r="F8">
         <v>2147</v>
@@ -618,9 +569,11 @@
         <v>7.642473213967893</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20.55-20.80</t>
+        </is>
       </c>
       <c r="B9">
         <v>4</v>
@@ -638,12 +591,14 @@
         <v>2733</v>
       </c>
       <c r="G9">
-        <v>9.7284020930480892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
+        <v>9.728402093048089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20.80-20.95</t>
+        </is>
       </c>
       <c r="B10">
         <v>4</v>
@@ -655,18 +610,20 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>174.19145481602371</v>
+        <v>174.1914548160237</v>
       </c>
       <c r="F10">
         <v>1189</v>
       </c>
       <c r="G10">
-        <v>4.2323710532872951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
+        <v>4.232371053287295</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20.95-21.10</t>
+        </is>
       </c>
       <c r="B11">
         <v>4</v>
@@ -678,18 +635,20 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>191.11187208757309</v>
+        <v>191.1870673983524</v>
       </c>
       <c r="F11">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G11">
-        <v>3.762503114654896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
+        <v>3.758943509059196</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>21.10-21.25</t>
+        </is>
       </c>
       <c r="B12">
         <v>4</v>
